--- a/tests/frameworks/framework_udt.xlsx
+++ b/tests/frameworks/framework_udt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A061478-2615-6F4B-8428-35356737104A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{441C0BC2-4FA1-0A4C-BD64-BDC949599B5D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -737,9 +737,6 @@
     <t>dx, tx</t>
   </si>
   <si>
-    <t>all</t>
-  </si>
-  <si>
     <t>all_dx</t>
   </si>
   <si>
@@ -768,6 +765,9 @@
   </si>
   <si>
     <t>Loss-to-follow-up rate</t>
+  </si>
+  <si>
+    <t>all_people</t>
   </si>
 </sst>
 </file>
@@ -1179,7 +1179,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1360,7 +1360,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>26</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>27</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>28</v>
@@ -1472,10 +1472,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1483,7 +1483,7 @@
         <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1491,7 +1491,7 @@
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1561,10 +1561,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
@@ -1586,10 +1586,10 @@
         <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
@@ -1611,10 +1611,10 @@
         <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2">

--- a/tests/frameworks/framework_udt.xlsx
+++ b/tests/frameworks/framework_udt.xlsx
@@ -8,22 +8,154 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{441C0BC2-4FA1-0A4C-BD64-BDC949599B5D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0FA8A4C0-B425-1B4C-B031-9291DAB372A1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Compartments" sheetId="2" r:id="rId1"/>
-    <sheet name="Transitions" sheetId="3" r:id="rId2"/>
-    <sheet name="Characteristics" sheetId="4" r:id="rId3"/>
-    <sheet name="Cascades" sheetId="7" r:id="rId4"/>
+    <sheet name="Databook Pages" sheetId="8" r:id="rId1"/>
+    <sheet name="Compartments" sheetId="2" r:id="rId2"/>
+    <sheet name="Transitions" sheetId="3" r:id="rId3"/>
+    <sheet name="Characteristics" sheetId="4" r:id="rId4"/>
     <sheet name="Parameters" sheetId="6" r:id="rId5"/>
+    <sheet name="Cascades" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{0869F425-A7FA-FC48-8753-D29CCD6CC6E1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column is for the 'code name' of a custom databook sheet.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Normally, when constructing a databook, data-input sections for
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">compartments and characteristics are placed on a single page, while
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">parameters are placed on another.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This section allows custom sheets to be defined, allowing for more
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">user-friendly databook organisation.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note: A code name is a representative key that developers interface
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">with (e.g. in scripts and the codebase).
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>It should be in lower case without spaces.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{AC5821BA-1B07-1348-B1A0-918CB7D6347B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column is for the title of a custom databook sheet.
+Normally, when constructing a databook, data-input sections for
+compartments and characteristics are placed on a single page, while
+parameters are placed on another.
+This section allows custom sheets to be defined, allowing for more
+user-friendly databook organisation.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -159,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -168,161 +300,21 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">This column determines how important user-provided values for this
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">compartment are to setting up the initial state of a model.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">In general, the column value should be '1' if model construction
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">directly depends on what the user provides for compartment size.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">It should be '0' if supplied values are only for calibration or
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">note-keeping purposes.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">In this latter case, the linear-algebra method of setting up
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">compartment sizes may complain about an 'under-determined' system
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">during a model run.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">To avoid this, every zero-weighted compartment should be matched
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">by a 'characteristic' defined in a later spreadsheet that includes
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">this compartment and is not weighted zero for setup weight.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Note: Default value, i.e. a blank cell, is '1'.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Framework file parsing should also warn the user about a compartment
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">with nonzero setup weight that is suppressed in the databook, i.e.
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>has a databook order of '-1'.</t>
+          <t xml:space="preserve">This column marks whether compartment size data can be rescaled
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>during model calibration processes.</t>
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{1463AD83-63D4-EC46-A82A-37905E1D406B}">
       <text>
         <r>
           <rPr>
@@ -331,17 +323,67 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">This column marks whether compartment size data can be rescaled
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>during model calibration processes.</t>
+          <t xml:space="preserve">This column optionally marks whether a data-input section should
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">appear for this compartment in a custom databook sheet, if allowed
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">to appear at all according to 'databook order'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Each value should be a code name for a desired page defined in
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the 'custom databook pages' worksheet page.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If a cell is left empty, the enabled data-input section should appear
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>in a default databook page dedicated to state variables.</t>
         </r>
       </text>
     </comment>
@@ -349,7 +391,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -406,7 +448,33 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>This column, and any that immediately follow without a specified
+header, is for the 'components' of a cascade characteristic.
+A component is either a compartment or a characteristic that has
+been previously defined, i.e. in a previous row, and should be
+listed in this (and appropriate subsequent columns) by 'Code Name'.
+For example, characteristic 'infected' may include 'dis_stage_1',
+'dis_stage_2' and 'dis_advanced', where 'dis_advanced' is another
+previously-defined characteristic including 'dis_stage_3' and
+'dis_stage_4'.
+In an example model, 'infected' would track population size summed
+across the four 'dis_stage' states.
+Note: If two or more components are listed in the same column, they
+must be separated by a comma.
+Whitespace is allowable and will be deleted during processing.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -433,7 +501,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
       <text>
         <r>
           <rPr>
@@ -442,47 +510,81 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>This column, and any that immediately follow without a specified
-header, is for the 'components' of a cascade characteristic.
-A component is either a compartment or a characteristic that has
-been previously defined, i.e. in a previous row, and should be
-listed in this (and appropriate subsequent columns) by 'Code Name'.
-For example, characteristic 'infected' may include 'dis_stage_1',
-'dis_stage_2' and 'dis_advanced', where 'dis_advanced' is another
-previously-defined characteristic including 'dis_stage_3' and
-'dis_stage_4'.
-In an example model, 'infected' would track population size summed
-across the four 'dis_stage' states.
-Note: If two or more components are listed in the same column, they
-must be separated by a comma.
-Whitespace is allowable and will be deleted during processing.</t>
+          <t>This column marks whether characteristic size data can be rescaled
+during model calibration processes.</t>
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{A922DFF6-C9D0-AC4E-B73F-8ED95E92610A}">
       <text>
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column defines a 'denominator' attribute for a 'charac' item.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000007000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column marks whether characteristic size data can be rescaled
-during model calibration processes.</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column optionally marks whether a data-input section should
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">appear for this characteristic in a custom databook sheet, if allowed
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">to appear at all according to 'databook order'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Each value should be a code name for a desired page defined in
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the 'custom databook pages' worksheet page.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If a cell is left empty, the enabled data-input section should appear
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>in a default databook page dedicated to state variables.</t>
         </r>
       </text>
     </comment>
@@ -490,7 +592,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -523,21 +625,111 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>This column is for the 'display name' of a cascade parameter.
-The base case is referred to as a transition parameter, referring to
-the flow of entities between compartments.
-However, due to the option of specifying transition rates as functions
-of other parameters, a parameter can be any variable that directly or
-indirectly affects the rate of population change in the network.
-Examples include 'Birth Rate', 'Treatment Uptake Rate', 'Internet
-Coverage', etc.
-Note: A display name is a representative label that users interface
-with (e.g. in databooks and plots).
-It should be in title or sentence case.</t>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column is for the 'display name' of a cascade parameter.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">The base case is referred to as a transition parameter, referring to
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the flow of entities between compartments.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">However, due to the option of specifying transition rates as functions
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">of other parameters, a parameter can be any variable that directly or
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">indirectly affects the rate of population change in the network.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Examples include 'Birth Rate', 'Treatment Uptake Rate', 'Internet
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Coverage', etc.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Note: A display name is a representative label that users interface
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">with (e.g. in databooks and plots).
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>It should be in title or sentence case.</t>
         </r>
       </text>
     </comment>
@@ -559,7 +751,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -598,7 +790,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -634,6 +826,79 @@
           </rPr>
           <t>This column marks whether parameter data can be rescaled
 during model calibration processes.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{A6070E97-93A6-7543-9DAB-DE6A5FB7C74E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This column optionally marks whether a data-input section should
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">appear for this characteristic in a custom databook sheet, if allowed
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">to appear at all according to 'databook order'.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Each value should be a code name for a desired page defined in
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">the 'custom databook pages' worksheet page.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">If a cell is left empty, the enabled data-input section should appear
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color rgb="FF000000"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>in a default databook page dedicated to state variables.</t>
         </r>
       </text>
     </comment>
@@ -642,7 +907,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="89">
   <si>
     <t>Code Name</t>
   </si>
@@ -674,9 +939,6 @@
     <t>Components</t>
   </si>
   <si>
-    <t>Denominator</t>
-  </si>
-  <si>
     <t>Default Value</t>
   </si>
   <si>
@@ -713,9 +975,6 @@
     <t>tx</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
     <t>initiate</t>
   </si>
   <si>
@@ -755,26 +1014,176 @@
     <t>dx+tx</t>
   </si>
   <si>
-    <t>Testing rate</t>
-  </si>
-  <si>
     <t>probability</t>
   </si>
   <si>
-    <t>Treatment initiation rate</t>
-  </si>
-  <si>
     <t>Loss-to-follow-up rate</t>
   </si>
   <si>
     <t>all_people</t>
+  </si>
+  <si>
+    <t>Datasheet Code Name</t>
+  </si>
+  <si>
+    <t>Datasheet Title</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Databook Page</t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>test_pharm</t>
+  </si>
+  <si>
+    <t>test_clinic</t>
+  </si>
+  <si>
+    <t>test_out</t>
+  </si>
+  <si>
+    <t>Number tested throuh pharmacies</t>
+  </si>
+  <si>
+    <t>Number tested throuh clinics</t>
+  </si>
+  <si>
+    <t>Number tested throuh outreach programs</t>
+  </si>
+  <si>
+    <t>Number initiated onto treatment</t>
+  </si>
+  <si>
+    <t>diag</t>
+  </si>
+  <si>
+    <t>yield_pharm</t>
+  </si>
+  <si>
+    <t>Testing yield at pharmacies</t>
+  </si>
+  <si>
+    <t>yield_clinic</t>
+  </si>
+  <si>
+    <t>yield_out</t>
+  </si>
+  <si>
+    <t>Testing yield at clinics</t>
+  </si>
+  <si>
+    <t>Testing yield via outreach programs</t>
+  </si>
+  <si>
+    <t>diag_pharm</t>
+  </si>
+  <si>
+    <t>diag_clinic</t>
+  </si>
+  <si>
+    <t>diag_out</t>
+  </si>
+  <si>
+    <t>Number diagnosed through pharmacies</t>
+  </si>
+  <si>
+    <t>Number diagnosed through clinics</t>
+  </si>
+  <si>
+    <t>Number diagnosed through outreach programs</t>
+  </si>
+  <si>
+    <t>yield_pharm*test_pharm</t>
+  </si>
+  <si>
+    <t>yield_clinic*test_clinic</t>
+  </si>
+  <si>
+    <t>yield_out*test_out</t>
+  </si>
+  <si>
+    <t>Number diagnosed</t>
+  </si>
+  <si>
+    <t>diag_pharm+diag_clinic+diag_out</t>
+  </si>
+  <si>
+    <t>initiate_pharm</t>
+  </si>
+  <si>
+    <t>Initiation rate for those diagnosed at pharmacies</t>
+  </si>
+  <si>
+    <t>initiate_clinic</t>
+  </si>
+  <si>
+    <t>Initiation rate for those diagnosed at clinics</t>
+  </si>
+  <si>
+    <t>initiate_out</t>
+  </si>
+  <si>
+    <t>Initiation rate for those diagnosed via outreach programs</t>
+  </si>
+  <si>
+    <t>no_initiate_pharm</t>
+  </si>
+  <si>
+    <t>no_initiate_clinic</t>
+  </si>
+  <si>
+    <t>no_initiate_out</t>
+  </si>
+  <si>
+    <t>Number initiated via pharmacies</t>
+  </si>
+  <si>
+    <t>Number initiated via clinics</t>
+  </si>
+  <si>
+    <t>Number initiated via outreach programs</t>
+  </si>
+  <si>
+    <t>no_initiate_pharm+no_initiate_clinic+no_initiate_out</t>
+  </si>
+  <si>
+    <t>initiate_pharm*diag_pharm</t>
+  </si>
+  <si>
+    <t>initiate_clinic*diag_clinic</t>
+  </si>
+  <si>
+    <t>initiate_out*diag_out</t>
+  </si>
+  <si>
+    <t>loss_rate</t>
+  </si>
+  <si>
+    <t>Number lost-to-follow-up</t>
+  </si>
+  <si>
+    <t>tx*loss_rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -802,6 +1211,13 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -820,10 +1236,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -838,8 +1255,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1175,11 +1596,83 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093950AA-F119-3042-A36F-82A5E11AC40D}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1189,11 +1682,11 @@
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1210,79 +1703,85 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>8</v>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1290,7 +1789,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"n,y"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G4" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1299,12 +1798,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1329,7 +1828,7 @@
         <v>undx</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1338,7 +1837,7 @@
         <v>dx</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1347,7 +1846,7 @@
         <v>tx</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1355,24 +1854,23 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1380,75 +1878,93 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F4" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"y,n"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1457,12 +1973,737 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:K31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1</v>
+      </c>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="6"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="6"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="2">
+        <f>-240/1800</f>
+        <v>-0.13333333333333333</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>1</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C31" xr:uid="{00000000-0002-0000-0500-000000000000}">
+      <formula1>",number,probability,duration,proportion"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:J11 J12:J20 H12:I31" xr:uid="{00000000-0002-0000-0500-000001000000}">
+      <formula1>"y,n"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5680499-D84A-1B4F-B644-03899BDE28FE}">
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="179" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1472,307 +2713,37 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I16"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C16" xr:uid="{00000000-0002-0000-0500-000000000000}">
-      <formula1>",number,probability,duration,proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:I16" xr:uid="{00000000-0002-0000-0500-000001000000}">
-      <formula1>"y,n"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/tests/frameworks/framework_udt.xlsx
+++ b/tests/frameworks/framework_udt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0FA8A4C0-B425-1B4C-B031-9291DAB372A1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1B29A744-A679-B34E-8EC7-29B55E79CA2A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -907,7 +907,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="86">
   <si>
     <t>Code Name</t>
   </si>
@@ -1165,15 +1165,6 @@
   </si>
   <si>
     <t>initiate_out*diag_out</t>
-  </si>
-  <si>
-    <t>loss_rate</t>
-  </si>
-  <si>
-    <t>Number lost-to-follow-up</t>
-  </si>
-  <si>
-    <t>tx*loss_rate</t>
   </si>
 </sst>
 </file>
@@ -1978,7 +1969,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="A20" sqref="A20:J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2506,7 +2497,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>36</v>
@@ -2537,30 +2528,16 @@
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2">
-        <v>0</v>
-      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="J20" s="2"/>
       <c r="K20" s="2"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">

--- a/tests/frameworks/framework_udt.xlsx
+++ b/tests/frameworks/framework_udt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1B29A744-A679-B34E-8EC7-29B55E79CA2A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{811F17E3-ED07-BD44-BC67-71887B341E63}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -907,7 +907,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
   <si>
     <t>Code Name</t>
   </si>
@@ -1044,127 +1044,40 @@
     <t>number</t>
   </si>
   <si>
-    <t>test_pharm</t>
-  </si>
-  <si>
-    <t>test_clinic</t>
-  </si>
-  <si>
-    <t>test_out</t>
-  </si>
-  <si>
-    <t>Number tested throuh pharmacies</t>
-  </si>
-  <si>
-    <t>Number tested throuh clinics</t>
-  </si>
-  <si>
-    <t>Number tested throuh outreach programs</t>
-  </si>
-  <si>
-    <t>Number initiated onto treatment</t>
-  </si>
-  <si>
     <t>diag</t>
   </si>
   <si>
-    <t>yield_pharm</t>
-  </si>
-  <si>
-    <t>Testing yield at pharmacies</t>
-  </si>
-  <si>
-    <t>yield_clinic</t>
-  </si>
-  <si>
-    <t>yield_out</t>
-  </si>
-  <si>
-    <t>Testing yield at clinics</t>
-  </si>
-  <si>
-    <t>Testing yield via outreach programs</t>
-  </si>
-  <si>
-    <t>diag_pharm</t>
-  </si>
-  <si>
-    <t>diag_clinic</t>
-  </si>
-  <si>
-    <t>diag_out</t>
-  </si>
-  <si>
-    <t>Number diagnosed through pharmacies</t>
-  </si>
-  <si>
-    <t>Number diagnosed through clinics</t>
-  </si>
-  <si>
-    <t>Number diagnosed through outreach programs</t>
-  </si>
-  <si>
-    <t>yield_pharm*test_pharm</t>
-  </si>
-  <si>
-    <t>yield_clinic*test_clinic</t>
-  </si>
-  <si>
-    <t>yield_out*test_out</t>
-  </si>
-  <si>
-    <t>Number diagnosed</t>
-  </si>
-  <si>
-    <t>diag_pharm+diag_clinic+diag_out</t>
-  </si>
-  <si>
-    <t>initiate_pharm</t>
-  </si>
-  <si>
-    <t>Initiation rate for those diagnosed at pharmacies</t>
-  </si>
-  <si>
-    <t>initiate_clinic</t>
-  </si>
-  <si>
-    <t>Initiation rate for those diagnosed at clinics</t>
-  </si>
-  <si>
-    <t>initiate_out</t>
-  </si>
-  <si>
-    <t>Initiation rate for those diagnosed via outreach programs</t>
-  </si>
-  <si>
-    <t>no_initiate_pharm</t>
-  </si>
-  <si>
-    <t>no_initiate_clinic</t>
-  </si>
-  <si>
-    <t>no_initiate_out</t>
-  </si>
-  <si>
-    <t>Number initiated via pharmacies</t>
-  </si>
-  <si>
-    <t>Number initiated via clinics</t>
-  </si>
-  <si>
-    <t>Number initiated via outreach programs</t>
-  </si>
-  <si>
-    <t>no_initiate_pharm+no_initiate_clinic+no_initiate_out</t>
-  </si>
-  <si>
-    <t>initiate_pharm*diag_pharm</t>
-  </si>
-  <si>
-    <t>initiate_clinic*diag_clinic</t>
-  </si>
-  <si>
-    <t>initiate_out*diag_out</t>
+    <t>Diagnosis rate</t>
+  </si>
+  <si>
+    <t>num_diag</t>
+  </si>
+  <si>
+    <t>num_diag/undx</t>
+  </si>
+  <si>
+    <t>num_initiate</t>
+  </si>
+  <si>
+    <t>Initiation rate</t>
+  </si>
+  <si>
+    <t>num_initiate/dx</t>
+  </si>
+  <si>
+    <t>num_loss</t>
+  </si>
+  <si>
+    <t>num_loss/tx</t>
+  </si>
+  <si>
+    <t>Annual number of new diagnoses</t>
+  </si>
+  <si>
+    <t>Annual number newly initiated onto treatment</t>
+  </si>
+  <si>
+    <t>Annual number lost to follow-up</t>
   </si>
 </sst>
 </file>
@@ -1231,7 +1144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1247,6 +1160,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1819,7 +1735,7 @@
         <v>undx</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1850,7 +1766,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1966,10 +1882,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:J20"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1980,7 +1896,7 @@
     <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="43.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
@@ -2023,10 +1939,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>44</v>
@@ -2038,7 +1954,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
@@ -2050,49 +1966,51 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
         <v>0</v>
       </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="F3" s="2">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="2">
         <v>0</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2" t="s">
@@ -2104,57 +2022,51 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>22</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="6">
-        <v>0.05</v>
-      </c>
+      <c r="D5" s="6"/>
       <c r="E5" s="2">
         <v>0</v>
       </c>
       <c r="F5" s="2">
         <v>1</v>
       </c>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.04</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
+      <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
@@ -2166,511 +2078,178 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>58</v>
+        <v>23</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="6">
-        <v>0.15</v>
-      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2">
         <v>0</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>40</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="6"/>
+      <c r="A8" s="2"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="6"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D10" s="6"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10" s="2"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0.2</v>
-      </c>
-      <c r="E12" s="2">
-        <v>0</v>
-      </c>
-      <c r="F12" s="2">
-        <v>1</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0.9</v>
-      </c>
-      <c r="E13" s="2">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2">
-        <v>1</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="2"/>
-      <c r="J13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0.7</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0</v>
-      </c>
-      <c r="F14" s="2">
-        <v>1</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="2">
-        <v>0</v>
-      </c>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="2">
-        <v>0</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
-      <c r="G16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="2">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="2">
-        <v>0</v>
-      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
       <c r="I18" s="2"/>
-      <c r="J18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="2">
-        <f>-240/1800</f>
-        <v>-0.13333333333333333</v>
-      </c>
-      <c r="E19" s="2">
-        <v>0</v>
-      </c>
-      <c r="F19" s="2">
-        <v>1</v>
-      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C31" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J8 H2:I19" xr:uid="{00000000-0002-0000-0500-000001000000}">
+      <formula1>"y,n"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C19" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>",number,probability,duration,proportion"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:J11 J12:J20 H12:I31" xr:uid="{00000000-0002-0000-0500-000001000000}">
-      <formula1>"y,n"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -2680,12 +2259,13 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView zoomScale="179" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">

--- a/tests/frameworks/framework_udt.xlsx
+++ b/tests/frameworks/framework_udt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{811F17E3-ED07-BD44-BC67-71887B341E63}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EA50158C-8B88-5243-9723-CD03ED0BFF59}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Pages" sheetId="8" r:id="rId1"/>
@@ -1008,12 +1008,6 @@
     <t>Constituents</t>
   </si>
   <si>
-    <t>undx+dx+tx</t>
-  </si>
-  <si>
-    <t>dx+tx</t>
-  </si>
-  <si>
     <t>probability</t>
   </si>
   <si>
@@ -1078,6 +1072,12 @@
   </si>
   <si>
     <t>Annual number lost to follow-up</t>
+  </si>
+  <si>
+    <t>undx,dx,tx</t>
+  </si>
+  <si>
+    <t>dx,tx</t>
   </si>
 </sst>
 </file>
@@ -1518,18 +1518,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1613,10 +1613,10 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -1735,7 +1735,7 @@
         <v>undx</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1794,15 +1794,15 @@
         <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>24</v>
@@ -1817,7 +1817,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -1840,7 +1840,7 @@
         <v>8</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
         <v>8</v>
@@ -1863,7 +1863,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -1884,7 +1884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1931,21 +1931,21 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
@@ -1961,18 +1961,18 @@
         <v>7</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
@@ -1982,7 +1982,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>8</v>
@@ -1995,13 +1995,13 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="2">
@@ -2017,7 +2017,7 @@
         <v>7</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -2025,10 +2025,10 @@
         <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D5" s="6"/>
       <c r="E5" s="2">
@@ -2038,7 +2038,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>8</v>
@@ -2051,13 +2051,13 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2">
@@ -2073,7 +2073,7 @@
         <v>7</v>
       </c>
       <c r="K6" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
@@ -2081,10 +2081,10 @@
         <v>23</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2">
@@ -2094,7 +2094,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>8</v>
@@ -2258,8 +2258,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5680499-D84A-1B4F-B644-03899BDE28FE}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView zoomScale="179" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2281,7 +2281,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2289,7 +2289,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">

--- a/tests/frameworks/framework_udt.xlsx
+++ b/tests/frameworks/framework_udt.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{EA50158C-8B88-5243-9723-CD03ED0BFF59}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8E4C67F9-7C00-7247-ABE1-806F4044107D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -907,7 +907,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="55">
   <si>
     <t>Code Name</t>
   </si>
@@ -1072,12 +1072,6 @@
   </si>
   <si>
     <t>Annual number lost to follow-up</t>
-  </si>
-  <si>
-    <t>undx,dx,tx</t>
-  </si>
-  <si>
-    <t>dx,tx</t>
   </si>
 </sst>
 </file>
@@ -1766,7 +1760,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2259,7 +2253,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2281,7 +2275,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2289,7 +2283,7 @@
         <v>17</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -2297,7 +2291,7 @@
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/tests/frameworks/framework_udt.xlsx
+++ b/tests/frameworks/framework_udt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8E4C67F9-7C00-7247-ABE1-806F4044107D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B68E0B-89B0-446E-84ED-13C778FDC7EA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Pages" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Parameters" sheetId="6" r:id="rId5"/>
     <sheet name="Cascades" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -907,7 +907,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
   <si>
     <t>Code Name</t>
   </si>
@@ -1079,7 +1079,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1136,7 +1136,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1153,7 +1153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1504,13 +1504,13 @@
       <selection activeCell="A3" sqref="A3:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -1526,39 +1526,39 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
@@ -1573,21 +1573,21 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1629,15 +1629,13 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1653,15 +1651,13 @@
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1677,9 +1673,7 @@
       <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
         <v>7</v>
@@ -1707,9 +1701,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1723,7 +1717,7 @@
         <v>tx</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1732,7 +1726,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>Compartments!$A$3</f>
         <v>dx</v>
@@ -1741,7 +1735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>Compartments!$A$4</f>
         <v>tx</v>
@@ -1763,15 +1757,15 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1794,7 +1788,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1817,7 +1811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1840,7 +1834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -1878,25 +1872,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1931,7 +1925,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -1958,7 +1952,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -1987,7 +1981,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -2014,7 +2008,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -2043,7 +2037,7 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
@@ -2070,7 +2064,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2099,7 +2093,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="7"/>
       <c r="C8" s="2"/>
@@ -2112,7 +2106,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2123,7 +2117,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2134,7 +2128,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2145,7 +2139,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2156,7 +2150,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2167,7 +2161,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2178,7 +2172,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2189,7 +2183,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2200,7 +2194,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2211,7 +2205,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2222,7 +2216,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2252,17 +2246,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5680499-D84A-1B4F-B644-03899BDE28FE}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="179" workbookViewId="0">
+    <sheetView zoomScale="179" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -2270,7 +2264,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -2278,7 +2272,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -2286,7 +2280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>

--- a/tests/frameworks/framework_udt.xlsx
+++ b/tests/frameworks/framework_udt.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3B68E0B-89B0-446E-84ED-13C778FDC7EA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{44B4FED1-8934-0C4B-B1F6-3C0BCBA2E484}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Databook Pages" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Parameters" sheetId="6" r:id="rId5"/>
     <sheet name="Cascades" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -907,7 +907,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="55">
   <si>
     <t>Code Name</t>
   </si>
@@ -1079,7 +1079,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1136,7 +1136,7 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1153,7 +1153,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1504,13 +1504,13 @@
       <selection activeCell="A3" sqref="A3:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -1526,39 +1526,39 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
@@ -1576,18 +1576,18 @@
       <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1635,7 +1635,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1657,7 +1657,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1701,9 +1701,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1717,7 +1717,7 @@
         <v>tx</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1726,7 +1726,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="str">
         <f>Compartments!$A$3</f>
         <v>dx</v>
@@ -1735,7 +1735,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="str">
         <f>Compartments!$A$4</f>
         <v>tx</v>
@@ -1757,15 +1757,15 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1834,7 +1834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -1873,24 +1873,24 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1925,7 +1925,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -1952,7 +1952,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -1975,13 +1975,15 @@
       <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2"/>
+      <c r="I3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -2008,7 +2010,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -2031,13 +2033,15 @@
       <c r="H5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
@@ -2064,7 +2068,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2087,13 +2091,15 @@
       <c r="H7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="2"/>
+      <c r="I7" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="J7" s="2" t="s">
         <v>8</v>
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="7"/>
       <c r="C8" s="2"/>
@@ -2106,7 +2112,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2117,7 +2123,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2128,7 +2134,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2139,7 +2145,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2150,7 +2156,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2161,7 +2167,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2172,7 +2178,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2183,7 +2189,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2194,7 +2200,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2205,7 +2211,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2216,7 +2222,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2250,13 +2256,13 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -2264,7 +2270,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -2272,7 +2278,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -2280,7 +2286,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>

--- a/tests/frameworks/framework_udt.xlsx
+++ b/tests/frameworks/framework_udt.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/atomica/tests/frameworks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{44B4FED1-8934-0C4B-B1F6-3C0BCBA2E484}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856D55B4-37EB-4148-BDBB-92568660A169}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28560" windowHeight="14180" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Databook Pages" sheetId="8" r:id="rId1"/>
-    <sheet name="Compartments" sheetId="2" r:id="rId2"/>
-    <sheet name="Transitions" sheetId="3" r:id="rId3"/>
-    <sheet name="Characteristics" sheetId="4" r:id="rId4"/>
-    <sheet name="Parameters" sheetId="6" r:id="rId5"/>
-    <sheet name="Cascades" sheetId="7" r:id="rId6"/>
+    <sheet name="About" sheetId="9" r:id="rId1"/>
+    <sheet name="Databook Pages" sheetId="8" r:id="rId2"/>
+    <sheet name="Compartments" sheetId="2" r:id="rId3"/>
+    <sheet name="Transitions" sheetId="3" r:id="rId4"/>
+    <sheet name="Characteristics" sheetId="4" r:id="rId5"/>
+    <sheet name="Parameters" sheetId="6" r:id="rId6"/>
+    <sheet name="Cascades" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
@@ -907,7 +908,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="59">
   <si>
     <t>Code Name</t>
   </si>
@@ -1072,6 +1073,18 @@
   </si>
   <si>
     <t>Annual number lost to follow-up</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>UDT</t>
+  </si>
+  <si>
+    <t>UDT example</t>
   </si>
 </sst>
 </file>
@@ -1079,7 +1092,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_._-;\-* #,##0.00\ _k_r_._-;_-* &quot;-&quot;??\ _k_r_._-;_-@_-"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1136,9 +1149,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1153,11 +1166,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1497,6 +1513,37 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41729878-D668-43BB-8A23-5831FD580C69}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{093950AA-F119-3042-A36F-82A5E11AC40D}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -1504,13 +1551,13 @@
       <selection activeCell="A3" sqref="A3:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -1518,7 +1565,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -1526,39 +1573,39 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
@@ -1568,7 +1615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1576,18 +1623,18 @@
       <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1613,7 +1660,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1635,7 +1682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>20</v>
       </c>
@@ -1657,7 +1704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
@@ -1693,7 +1740,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -1701,9 +1748,9 @@
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1717,7 +1764,7 @@
         <v>tx</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>Compartments!$A$2</f>
         <v>undx</v>
@@ -1726,7 +1773,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>Compartments!$A$3</f>
         <v>dx</v>
@@ -1735,7 +1782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>Compartments!$A$4</f>
         <v>tx</v>
@@ -1749,7 +1796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G4"/>
   <sheetViews>
@@ -1757,15 +1804,15 @@
       <selection activeCell="A2" sqref="A2:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="3" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1788,7 +1835,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
@@ -1811,7 +1858,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>29</v>
       </c>
@@ -1834,7 +1881,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>30</v>
       </c>
@@ -1868,29 +1915,29 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="44.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1925,7 +1972,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -1952,7 +1999,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>43</v>
       </c>
@@ -1983,7 +2030,7 @@
       </c>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>47</v>
       </c>
@@ -2010,7 +2057,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
@@ -2041,7 +2088,7 @@
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
@@ -2068,7 +2115,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>23</v>
       </c>
@@ -2099,7 +2146,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="7"/>
       <c r="C8" s="2"/>
@@ -2112,7 +2159,7 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -2123,7 +2170,7 @@
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -2134,7 +2181,7 @@
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -2145,7 +2192,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -2156,7 +2203,7 @@
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -2167,7 +2214,7 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -2178,7 +2225,7 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -2189,7 +2236,7 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -2200,7 +2247,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -2211,7 +2258,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -2222,7 +2269,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2248,7 +2295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5680499-D84A-1B4F-B644-03899BDE28FE}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -2256,13 +2303,13 @@
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -2270,7 +2317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
@@ -2278,7 +2325,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -2286,7 +2333,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>26</v>
       </c>

--- a/tests/frameworks/framework_udt.xlsx
+++ b/tests/frameworks/framework_udt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{856D55B4-37EB-4148-BDBB-92568660A169}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C9A438-4F29-4AED-B1B9-DDBCACD09A0E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="28560" windowHeight="14175" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -1048,24 +1048,15 @@
     <t>num_diag</t>
   </si>
   <si>
-    <t>num_diag/undx</t>
-  </si>
-  <si>
     <t>num_initiate</t>
   </si>
   <si>
     <t>Initiation rate</t>
   </si>
   <si>
-    <t>num_initiate/dx</t>
-  </si>
-  <si>
     <t>num_loss</t>
   </si>
   <si>
-    <t>num_loss/tx</t>
-  </si>
-  <si>
     <t>Annual number of new diagnoses</t>
   </si>
   <si>
@@ -1085,6 +1076,15 @@
   </si>
   <si>
     <t>UDT example</t>
+  </si>
+  <si>
+    <t>num_loss/max(tx,num_loss)</t>
+  </si>
+  <si>
+    <t>num_initiate/max(dx,num_initiate)</t>
+  </si>
+  <si>
+    <t>num_diag/max(undx,num_diag)</t>
   </si>
 </sst>
 </file>
@@ -1516,7 +1516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41729878-D668-43BB-8A23-5831FD580C69}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1524,18 +1524,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1620,7 +1620,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1745,7 +1745,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="200" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1801,7 +1801,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView zoomScale="165" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1919,8 +1919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1931,7 +1931,7 @@
     <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
     <col min="8" max="8" width="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
@@ -1977,7 +1977,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>42</v>
@@ -2017,7 +2017,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>8</v>
@@ -2032,10 +2032,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>42</v>
@@ -2062,7 +2062,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
@@ -2075,7 +2075,7 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>8</v>
@@ -2090,10 +2090,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>42</v>
@@ -2133,7 +2133,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>8</v>

--- a/tests/frameworks/framework_udt.xlsx
+++ b/tests/frameworks/framework_udt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\frameworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15724271-EF40-4095-8C24-EC39CD1CEABF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4375F9-A718-4F4E-9F53-08AC3FB690B4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="9" r:id="rId1"/>
@@ -114,20 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{3F46A7DA-FE24-4E1C-9D15-BD3B9B2F2AA3}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Select whether you can adjust this compartment in calibration - default is 'n' (cannot calibrate)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{69690E77-E19A-4C62-A1A8-7A79BC1C6D8C}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{69690E77-E19A-4C62-A1A8-7A79BC1C6D8C}">
       <text>
         <r>
           <rPr>
@@ -236,20 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{EC0EC08C-D65E-4DFA-A6CF-0EB40DE9D2A2}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Select whether you can adjust this characteristic in calibration - default is 'n' (cannot calibrate)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{559607C2-31DF-4F19-8B38-ADD8E67B050A}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{559607C2-31DF-4F19-8B38-ADD8E67B050A}">
       <text>
         <r>
           <rPr>
@@ -376,20 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{56CE2189-0A42-47B2-BD42-8E8BFBCF4F01}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Select whether you can adjust this parameter in calibration - default is 'n' (cannot calibrate)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{9AB3D83C-D0BC-4583-B5B1-006FE7C2562F}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{9AB3D83C-D0BC-4583-B5B1-006FE7C2562F}">
       <text>
         <r>
           <rPr>
@@ -407,7 +368,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="70">
   <si>
     <t>Components</t>
   </si>
@@ -505,12 +466,6 @@
     <t>Maximum value</t>
   </si>
   <si>
-    <t>Is impact</t>
-  </si>
-  <si>
-    <t>Can calibrate</t>
-  </si>
-  <si>
     <t>Databook page</t>
   </si>
   <si>
@@ -620,6 +575,9 @@
   </si>
   <si>
     <t>n</t>
+  </si>
+  <si>
+    <t>Targetable</t>
   </si>
 </sst>
 </file>
@@ -711,6 +669,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
@@ -746,13 +718,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -761,13 +726,6 @@
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1144,10 +1102,10 @@
     </row>
     <row r="2" spans="1:2" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1276,21 +1234,21 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="4" customWidth="1"/>
     <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="5" width="18.7109375" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="3" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1298,41 +1256,36 @@
         <v>27</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D1" s="1"/>
       <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1342,16 +1295,11 @@
       <formula>AND(A1&lt;&gt;"",NOT(B1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D1048576">
-    <cfRule type="expression" dxfId="7" priority="7">
-      <formula>AND(#REF!&lt;&gt;"",NOT(D2&lt;&gt;""))</formula>
+  <conditionalFormatting sqref="C2:C1048576">
+    <cfRule type="expression" dxfId="8" priority="7">
+      <formula>AND(#REF!&lt;&gt;"",NOT(C2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{EFA3D3D9-56A8-43F0-A737-1EDBC3038312}">
-      <formula1>"n,y"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1360,7 +1308,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{0238372B-F012-4B98-A58B-305EDC0BD903}">
-            <xm:f>AND(D2&lt;&gt;"",ISERROR(MATCH(D2,'Databook Pages'!$A:$A,0)))</xm:f>
+            <xm:f>AND(C2&lt;&gt;"",ISERROR(MATCH(C2,'Databook Pages'!$A:$A,0)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -1369,7 +1317,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>C2:C1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -1379,7 +1327,7 @@
           <x14:formula1>
             <xm:f>'Databook Pages'!$A$2:$A$9999</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D1048576</xm:sqref>
+          <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1405,7 +1353,7 @@
   <sheetData>
     <row r="1" spans="1:398" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="str">
         <f>IF(Compartments!$A2&lt;&gt;"",Compartments!$A2,"")</f>
@@ -3002,7 +2950,7 @@
         <v>undx</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:398" x14ac:dyDescent="0.25">
@@ -3011,7 +2959,7 @@
         <v>dx</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:398" x14ac:dyDescent="0.25">
@@ -3020,7 +2968,7 @@
         <v>tx</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:398" x14ac:dyDescent="0.25">
@@ -5417,10 +5365,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5429,11 +5377,10 @@
     <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.7109375" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="2" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -5447,67 +5394,55 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="B4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="C4" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F5" s="2"/>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E5" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B1048576">
@@ -5515,19 +5450,11 @@
       <formula>AND(A2&lt;&gt;"",NOT(B2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F1048576">
-    <cfRule type="expression" dxfId="3" priority="8">
-      <formula>AND(#REF!&lt;&gt;"",NOT(F2&lt;&gt;""))</formula>
+  <conditionalFormatting sqref="E2:E1048576">
+    <cfRule type="expression" dxfId="4" priority="8">
+      <formula>AND(#REF!&lt;&gt;"",NOT(E2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E1048576" xr:uid="{3FB7A4A5-B63C-489E-8DB0-DCA9DC6C3431}">
-      <formula1>"n,y"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E4" xr:uid="{E29B1BF0-005F-43A4-8886-B92D3FC1B0DD}">
-      <formula1>"y,n"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -5536,7 +5463,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{B070FBDA-10C1-45BC-AA32-DA4BD51EB2DD}">
-            <xm:f>AND(F2&lt;&gt;"",ISERROR(MATCH(F2,'Databook Pages'!$A:$A,0)))</xm:f>
+            <xm:f>AND(E2&lt;&gt;"",ISERROR(MATCH(E2,'Databook Pages'!$A:$A,0)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5545,7 +5472,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>F2:F1048576</xm:sqref>
+          <xm:sqref>E2:E1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5555,7 +5482,7 @@
           <x14:formula1>
             <xm:f>'Databook Pages'!$A$2:$A$9999</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F1048576</xm:sqref>
+          <xm:sqref>E2:E1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5568,10 +5495,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5581,12 +5508,11 @@
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -5609,24 +5535,21 @@
         <v>3</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
@@ -5635,21 +5558,21 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2">
         <v>0</v>
@@ -5658,25 +5581,22 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2">
         <v>0</v>
@@ -5684,21 +5604,21 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" s="2">
         <v>0</v>
@@ -5707,25 +5627,22 @@
         <v>1</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -5733,21 +5650,21 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="J6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E7" s="2">
         <v>0</v>
@@ -5756,18 +5673,15 @@
         <v>1</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J8" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="2"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
@@ -5775,13 +5689,13 @@
       <formula>AND(A1&lt;&gt;"",NOT(B1&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J2:J1048576">
-    <cfRule type="expression" dxfId="0" priority="9">
-      <formula>AND(#REF!&lt;&gt;"",NOT(J2&lt;&gt;""))</formula>
+  <conditionalFormatting sqref="I2:I1048576">
+    <cfRule type="expression" dxfId="1" priority="9">
+      <formula>AND(#REF!&lt;&gt;"",NOT(I2&lt;&gt;""))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:I1048576" xr:uid="{7CB7BECB-8CCA-402C-8209-B57AEC65D6EC}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H8:H1048576" xr:uid="{7CB7BECB-8CCA-402C-8209-B57AEC65D6EC}">
       <formula1>"n,y"</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Code names must be unique" error="Parameter code names must be unique" sqref="A8:A1048576" xr:uid="{E6E68E87-C2E4-4D80-BD6F-D69CE5F2A8E2}">
@@ -5793,7 +5707,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C7" xr:uid="{88339682-64E4-4F85-A8B8-B1006DD6ED6F}">
       <formula1>",number,probability,duration,proportion"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:I7" xr:uid="{DD564CC5-AF20-4209-8C2A-E4AA88B3357E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H7" xr:uid="{DD564CC5-AF20-4209-8C2A-E4AA88B3357E}">
       <formula1>"y,n"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5804,7 +5718,7 @@
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="expression" priority="1" id="{BE3DBFB1-F6C9-4726-B787-A3DD602656FE}">
-            <xm:f>AND(J2&lt;&gt;"",ISERROR(MATCH(J2,'Databook Pages'!$A:$A,0)))</xm:f>
+            <xm:f>AND(I2&lt;&gt;"",ISERROR(MATCH(I2,'Databook Pages'!$A:$A,0)))</xm:f>
             <x14:dxf>
               <fill>
                 <patternFill>
@@ -5813,7 +5727,7 @@
               </fill>
             </x14:dxf>
           </x14:cfRule>
-          <xm:sqref>J2:J1048576</xm:sqref>
+          <xm:sqref>I2:I1048576</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5823,7 +5737,7 @@
           <x14:formula1>
             <xm:f>'Databook Pages'!$A$2:$A$9999</xm:f>
           </x14:formula1>
-          <xm:sqref>J2:J1048576</xm:sqref>
+          <xm:sqref>I2:I1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
